--- a/produtos_amazon_final.xlsx
+++ b/produtos_amazon_final.xlsx
@@ -2173,7 +2173,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Luminária LED 3D Acrílico Abajur São paulo</t>
+          <t>Luminária LED 3D Acrílico Abajur São paulo teste</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2243,7 +2243,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/fabricalumi-sudo/luminarias-imagens/refs/heads/main/imagens/luminaria_saopaulo.png</t>
+          <t>https://raw.githubusercontent.com/fabricalumi-sudo/luminarias-imagens/refs/heads/main/flamengao.png</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr"/>
